--- a/Spider/a.xlsx
+++ b/Spider/a.xlsx
@@ -5,22 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\新建文件夹 (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\信息\qd5\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB97474-0511-4755-A5D1-BEDCFF6FE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEDF8F-BEEB-4B75-9D51-0A0980B69318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,1344 +339,1949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A266"/>
+  <dimension ref="A1:A387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>16756681989</v>
+        <v>16536610105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16571303771</v>
+        <v>16536893496</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>16222651352</v>
+        <v>16536736494</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16238822645</v>
+        <v>17040278104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16238822653</v>
+        <v>16227212024</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>17140946882</v>
+        <v>16731806858</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16259508257</v>
+        <v>16210747745</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17019414389</v>
+        <v>16521596622</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16764763243</v>
+        <v>17092643245</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>16536637717</v>
+        <v>16536582349</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16259503160</v>
+        <v>16211721679</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16537639394</v>
+        <v>16536227570</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>16259508272</v>
+        <v>16756892756</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>16536895352</v>
+        <v>16756102902</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>16536735062</v>
+        <v>17028258431</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>17050582335</v>
+        <v>16536227256</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>17019415429</v>
+        <v>16764764213</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16259509468</v>
+        <v>17025594890</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17144317910</v>
+        <v>17040274465</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17050545790</v>
+        <v>17029097742</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17019415417</v>
+        <v>16785651046</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>17140946862</v>
+        <v>16764764240</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>16537630120</v>
+        <v>16211957746</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>16536766007</v>
+        <v>16536894014</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>16259503380</v>
+        <v>16571133274</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>16731807518</v>
+        <v>17019414429</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>16521621201</v>
+        <v>16536799275</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>16227211521</v>
+        <v>17025597071</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>16211956017</v>
+        <v>16537633246</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>17144346382</v>
+        <v>17025595995</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16536226510</v>
+        <v>16536580450</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>16228348573</v>
+        <v>17025825495</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>16250451399</v>
+        <v>16571182001</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16571181549</v>
+        <v>16536733165</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>16521622765</v>
+        <v>17017919395</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>16756072021</v>
+        <v>17025598319</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17118625157</v>
+        <v>16237719581</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>16571116590</v>
+        <v>17025595919</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>16522190538</v>
+        <v>16210743757</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>17166763964</v>
+        <v>16227210442</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>16211722289</v>
+        <v>16731807578</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>17025827429</v>
+        <v>16571303186</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>16210745290</v>
+        <v>16537636491</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>16756090776</v>
+        <v>17108391691</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>17108390463</v>
+        <v>16756713606</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16210745084</v>
+        <v>16536227990</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>16211956126</v>
+        <v>16536582554</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16259503209</v>
+        <v>16571184467</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16537630325</v>
+        <v>17025824940</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>17025594798</v>
+        <v>16536226603</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>16211721802</v>
+        <v>16756072565</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>17108391662</v>
+        <v>17070943987</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>17084437332</v>
+        <v>16210745219</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>16536896067</v>
+        <v>17108391231</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>17025826865</v>
+        <v>17025594831</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>16536895752</v>
+        <v>17025826103</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>16232408646</v>
+        <v>17092648110</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>16232408587</v>
+        <v>17144346593</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>16536895131</v>
+        <v>17127960511</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16259507476</v>
+        <v>16756072103</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>16756340159</v>
+        <v>16785884227</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>17138524467</v>
+        <v>17087131755</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>16210745018</v>
+        <v>17025821973</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16537630573</v>
+        <v>16536735496</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>16211955837</v>
+        <v>16756340536</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>16536731844</v>
+        <v>16536227214</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>16521999611</v>
+        <v>16571301896</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>16210745261</v>
+        <v>17024569632</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>16227212129</v>
+        <v>16536227561</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>16756340321</v>
+        <v>16536737554</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>17025822054</v>
+        <v>16210769709</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>17106139162</v>
+        <v>16521918813</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>17025594919</v>
+        <v>17025597214</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>16756612990</v>
+        <v>16536894525</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>16222651556</v>
+        <v>17144318701</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>17145236617</v>
+        <v>16222653484</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>17019416834</v>
+        <v>16211729508</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>16211722271</v>
+        <v>17092643740</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>16756340395</v>
+        <v>16571133592</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>16254431323</v>
+        <v>16536737440</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>16259504130</v>
+        <v>16571304122</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>16798260640</v>
+        <v>16537630503</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>17145343479</v>
+        <v>16537635324</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>17108391563</v>
+        <v>16571183716</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>17108390272</v>
+        <v>17019416904</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>17025829392</v>
+        <v>17021346486</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>16232402559</v>
+        <v>17017910590</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>16536896165</v>
+        <v>17138524527</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>16211956110</v>
+        <v>17024074513</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>16571133177</v>
+        <v>17040278461</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>16259507369</v>
+        <v>17025822717</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>16756340326</v>
+        <v>17025596963</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>16259503043</v>
+        <v>17021341794</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>16228346554</v>
+        <v>15659050371</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>16211729482</v>
+        <v>16222652437</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>16756071786</v>
+        <v>16222652251</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>17025827759</v>
+        <v>17025597161</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>16571304540</v>
+        <v>17144346337</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>16785884204</v>
+        <v>17025594806</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>17019413314</v>
+        <v>17019413629</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>16254437180</v>
+        <v>17144293556</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>17025827489</v>
+        <v>16756072337</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>16227212069</v>
+        <v>17050998807</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>16731806838</v>
+        <v>16222652392</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>17019414251</v>
+        <v>16222653615</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>16232401686</v>
+        <v>16259508587</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>16756612671</v>
+        <v>17144346755</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>16232404207</v>
+        <v>16210994783</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>16756340393</v>
+        <v>17084431175</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>16259504076</v>
+        <v>16536735374</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>16250451449</v>
+        <v>17108391737</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>16232400544</v>
+        <v>17028257184</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>16263387919</v>
+        <v>16222652473</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>17136264024</v>
+        <v>16756103181</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>16571184568</v>
+        <v>16522059338</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>16756892937</v>
+        <v>16756713753</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>16536896013</v>
+        <v>17064651068</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>16232408565</v>
+        <v>16227210963</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>16228204948</v>
+        <v>16257129254</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>16238820233</v>
+        <v>18659938604</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>17025820117</v>
+        <v>17020125014</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>16211728920</v>
+        <v>16756681989</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>17144317931</v>
+        <v>16571303771</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>17108391583</v>
+        <v>16222651352</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>16536226650</v>
+        <v>16238822645</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>17102542426</v>
+        <v>16238822653</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>16232405290</v>
+        <v>17140946882</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>17144318569</v>
+        <v>16259508257</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>16254435950</v>
+        <v>17019414389</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>16536611207</v>
+        <v>16764763243</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>16537636140</v>
+        <v>16536637717</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>16228349431</v>
+        <v>16259503160</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>16536797556</v>
+        <v>16537639394</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>17108391465</v>
+        <v>16259508272</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>16232403645</v>
+        <v>16536895352</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>16259507463</v>
+        <v>16536735062</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>16536732814</v>
+        <v>17050582335</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>16232402023</v>
+        <v>17019415429</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>16536735745</v>
+        <v>16259509468</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>16232409721</v>
+        <v>17144317910</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>17025829953</v>
+        <v>17050545790</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>16232403373</v>
+        <v>17019415417</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>16232402179</v>
+        <v>17140946862</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>16785884286</v>
+        <v>16537630120</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>16232402701</v>
+        <v>16536766007</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>16238822650</v>
+        <v>16259503380</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>16537630657</v>
+        <v>16731807518</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>17108390504</v>
+        <v>16521621201</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>17019415466</v>
+        <v>16227211521</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>17108391236</v>
+        <v>16211956017</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16785884311</v>
+        <v>17144346382</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>17019416480</v>
+        <v>16536226510</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>17108391604</v>
+        <v>16228348573</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>17108390276</v>
+        <v>16250451399</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>16232402917</v>
+        <v>16571181549</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>17054655425</v>
+        <v>16521622765</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>17047153448</v>
+        <v>16756072021</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>16210745043</v>
+        <v>17118625157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>16222653163</v>
+        <v>16571116590</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>16210991568</v>
+        <v>16522190538</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>16536739923</v>
+        <v>17166763964</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>17144318265</v>
+        <v>16211722289</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>16232407525</v>
+        <v>17025827429</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>17025598268</v>
+        <v>16210745290</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>17019414309</v>
+        <v>16756090776</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>16536229205</v>
+        <v>17108390463</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>17025596970</v>
+        <v>16210745084</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>16756340387</v>
+        <v>16211956126</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>17019416495</v>
+        <v>16259503209</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>16537637415</v>
+        <v>16537630325</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>16211720964</v>
+        <v>17025594798</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>17108391060</v>
+        <v>16211721802</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>17017919215</v>
+        <v>17108391662</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>16764763854</v>
+        <v>17084437332</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>16756340652</v>
+        <v>16536896067</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>16210993177</v>
+        <v>17025826865</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>16259509746</v>
+        <v>16536895752</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>16238822660</v>
+        <v>16232408646</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>16756090809</v>
+        <v>16232408587</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>16211722150</v>
+        <v>16536895131</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>16571326954</v>
+        <v>16259507476</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>16785902470</v>
+        <v>16756340159</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>17050545751</v>
+        <v>17138524467</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>16259508267</v>
+        <v>16210745018</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>16521917755</v>
+        <v>16537630573</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>16263388767</v>
+        <v>16211955837</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>16211959698</v>
+        <v>16536731844</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>16211956081</v>
+        <v>16521999611</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>16237901645</v>
+        <v>16210745261</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>17025594928</v>
+        <v>16227212129</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>17025594723</v>
+        <v>16756340321</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>16238820677</v>
+        <v>17025822054</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>16731806728</v>
+        <v>17106139162</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>16537630659</v>
+        <v>17025594919</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>16232407363</v>
+        <v>16756612990</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>17019414401</v>
+        <v>16222651556</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>16232404321</v>
+        <v>17145236617</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>17050999698</v>
+        <v>17019416834</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>17145235960</v>
+        <v>16211722271</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>17025595973</v>
+        <v>16756340395</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>16521621799</v>
+        <v>16254431323</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>17050548299</v>
+        <v>16259504130</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>16210993165</v>
+        <v>16798260640</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>16521589121</v>
+        <v>17145343479</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>16764764186</v>
+        <v>17108391563</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>16536765539</v>
+        <v>17108390272</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>17010010551</v>
+        <v>17025829392</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>16536895192</v>
+        <v>16232402559</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>16232405740</v>
+        <v>16536896165</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>16232407454</v>
+        <v>16211956110</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>16536735754</v>
+        <v>16571133177</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>16254431501</v>
+        <v>16259507369</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>16228349849</v>
+        <v>16756340326</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>17017913185</v>
+        <v>16259503043</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>16536797601</v>
+        <v>16228346554</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>16211721691</v>
+        <v>16211729482</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>17025597045</v>
+        <v>16756071786</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>16756305970</v>
+        <v>17025827759</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>17084436974</v>
+        <v>16571304540</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>16756340672</v>
+        <v>16785884204</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>16259509425</v>
+        <v>17019413314</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>17092645332</v>
+        <v>16254437180</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>16259506026</v>
+        <v>17025827489</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>16211721734</v>
+        <v>16227212069</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>16259508328</v>
+        <v>16731806838</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>16232400616</v>
+        <v>17019414251</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>16536733701</v>
+        <v>16232401686</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>16250451652</v>
+        <v>16756612671</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>16232404407</v>
+        <v>16232404207</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>16254437089</v>
+        <v>16756340393</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17019416450</v>
+        <v>16259504076</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>16536730151</v>
+        <v>16250451449</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>16536895363</v>
+        <v>16232400544</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>16756072552</v>
+        <v>16263387919</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>17144318085</v>
+        <v>17136264024</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>16756612956</v>
+        <v>16571184568</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>17144346118</v>
+        <v>16756892937</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>16237900451</v>
+        <v>16536896013</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>17019416547</v>
+        <v>16232408565</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>17025596047</v>
+        <v>16228204948</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>16521580855</v>
+        <v>16238820233</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>16521597710</v>
+        <v>17025820117</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>17050548972</v>
+        <v>16211728920</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>16211957446</v>
+        <v>17144317931</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>16756606200</v>
+        <v>17108391583</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>16536739194</v>
+        <v>16536226650</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>17108391709</v>
+        <v>17102542426</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>16756071791</v>
+        <v>16232405290</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>16536793573</v>
+        <v>17144318569</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>17145235987</v>
+        <v>16254435950</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>16571116136</v>
+        <v>16536611207</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>16537636745</v>
+        <v>16537636140</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>17017918764</v>
+        <v>16228349431</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>17136264009</v>
+        <v>16536797556</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>17090646587</v>
+        <v>17108391465</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>17108391605</v>
+        <v>16232403645</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>16222653448</v>
+        <v>16259507463</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>16222653146</v>
+        <v>16536732814</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>16210745089</v>
+        <v>16232402023</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>16259506072</v>
+        <v>16536735745</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>16536588254</v>
+        <v>16232409721</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>17144318137</v>
+        <v>17025829953</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>16211728917</v>
+        <v>16232403373</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>16211729060</v>
+        <v>16232402179</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>16522197337</v>
+        <v>16785884286</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266">
+        <v>16232402701</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>16238822650</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>16537630657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>17108390504</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>17019415466</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>17108391236</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>16785884311</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>17019416480</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>17108391604</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>17108390276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>16232402917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>17054655425</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>17047153448</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>16210745043</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>16222653163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>16210991568</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>16536739923</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>17144318265</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>16232407525</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>17025598268</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>17019414309</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>16536229205</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>17025596970</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>16756340387</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>17019416495</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>16537637415</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>16211720964</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>17108391060</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>17017919215</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>16764763854</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>16756340652</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>16210993177</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>16259509746</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>16238822660</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>16756090809</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>16211722150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>16571326954</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>16785902470</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>17050545751</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>16259508267</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>16521917755</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>16263388767</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>16211959698</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>16211956081</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>16237901645</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>17025594928</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>17025594723</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>16238820677</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>16731806728</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>16537630659</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>16232407363</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>17019414401</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>16232404321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>17050999698</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>17145235960</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>17025595973</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>16521621799</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>17050548299</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>16210993165</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>16521589121</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>16764764186</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>16536765539</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>17010010551</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>16536895192</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>16232405740</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>16232407454</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>16536735754</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>16254431501</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>16228349849</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>17017913185</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>16536797601</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>16211721691</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>17025597045</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>16756305970</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>17084436974</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>16756340672</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>16259509425</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>17092645332</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>16259506026</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>16211721734</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>16259508328</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>16232400616</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>16536733701</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>16250451652</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>16232404407</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>16254437089</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>17019416450</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>16536730151</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>16536895363</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>16756072552</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>17144318085</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>16756612956</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>17144346118</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>16237900451</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>17019416547</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>17025596047</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>16521580855</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>16521597710</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>17050548972</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>16211957446</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>16756606200</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>16536739194</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>17108391709</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>16756071791</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>16536793573</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>17145235987</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>16571116136</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>16537636745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>17017918764</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>17136264009</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>17090646587</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>17108391605</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>16222653448</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>16222653146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>16210745089</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>16259506072</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>16536588254</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>17144318137</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>16211728917</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>16211729060</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>16522197337</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
         <v>17050545611</v>
       </c>
     </row>
